--- a/table_data_members.xlsx
+++ b/table_data_members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +489,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KRaman K+234 956 008 4948</t>
+          <t>KDeepesh K+234 0157008355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kvkpvwrean@gmail.com</t>
+          <t>ujwlohlrbo@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Call Raman</t>
+          <t>Call Deepesh</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,17 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KRaman K+234 1701809637</t>
+          <t>KAman K+234 977 531 3194</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tatcphulqj@gmail.com</t>
+          <t>klopmjsigo@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TATeam AOne</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Call Raman</t>
+          <t>Call Aman</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KRaman K+234 1701809631</t>
+          <t>KDanish K+234 2845885976</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tatcphklqj@gmail.com</t>
+          <t>guhnechmlg@gmail.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Call Raman</t>
+          <t>Call Danish</t>
         </is>
       </c>
     </row>
@@ -603,17 +603,17 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KSarb K+234 1296068276</t>
+          <t>KShakil K+234 823 097 6374</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dyizhcgqkq@gmail.com</t>
+          <t>qusveqwdro@gmail.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TATeam AOne</t>
+          <t>DDanish</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Call Sarb</t>
+          <t>Call Shakil</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KDanish K+234 2525299364</t>
+          <t>KRaman K+234 917 856 2434</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>rqfmauynju@gmail.com</t>
+          <t>zyikukbwek@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TATeam AOneTATeam AOneTATeam AOne+ 1TATeam AOneTATeam AOneTATeam AOneTATeam AOne</t>
+          <t>DDanish</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Member</t>
+          <t>Admin</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Call Danish</t>
+          <t>Call Raman</t>
         </is>
       </c>
     </row>
@@ -679,35 +679,73 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
+          <t>KAjay K+234 2281649424</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>filougwykq@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HHiteshDDanish</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Activated</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Call Ajay</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>KRamandeep Kaur+234 1234567890</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>ramandeep.kaur@capanicus.com</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TATeam AOneTATeam AOneTATeam AOne+ 2TATeam AOneTATeam AOneTATeam AOneTATeam AOneTATeam AOne</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HHiteshDDanish</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>+234 833 123 4588</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Activated</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
